--- a/biology/Botanique/Pyrola_grandiflora/Pyrola_grandiflora.xlsx
+++ b/biology/Botanique/Pyrola_grandiflora/Pyrola_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrola grandiflora est une espèce de plantes à fleurs du genre Pyrola appartenant à la famille des Ericaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonymes
 Pyrola borealis Rydb.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette petite plante vivace possède une tige de 8 à 12 cm qui porte dans sa partie supérieure une inflorescence de fleurs globuleuses. Ses feuilles basales en rosette sont épaisses et d'un vert brillant mesurant de 1,5 à 3 cm de longueur et de 1 à 2 cm de largeur.
 Ses fleurs sont d'un blanc rosâtre à rougeâtre rassemblées entre trois et huit, à la corolle de 15 à 20 mm de diamètre.
@@ -577,7 +593,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrola grandiflora se rencontre dans les régions arctiques d'Asie (Sibérie) et d'Amérique du Nord, croissant dans les zones de toundra sur des sols humides mousseux ou herbeux avec des lichens, parfois en association avec des saules.
 </t>
